--- a/Tableau - LTI.xlsx
+++ b/Tableau - LTI.xlsx
@@ -3,20 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814A78D8-6EE4-4762-9E08-4C68DB831874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FCC398-D2DF-442E-8F73-09E28DD3E37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau" sheetId="8" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="107">
   <si>
     <t>Understanding/reproducing issues</t>
   </si>
@@ -339,35 +338,14 @@
     <t xml:space="preserve"> Automation Services</t>
   </si>
   <si>
-    <t>12 Days</t>
-  </si>
-  <si>
     <t>Kerbros setup for EAP connectivity - Imphala, Hive</t>
-  </si>
-  <si>
-    <t>Linux Environment</t>
-  </si>
-  <si>
-    <t>Basic Linux and Windows</t>
-  </si>
-  <si>
-    <t>Cognos</t>
-  </si>
-  <si>
-    <t>Microstrategy</t>
-  </si>
-  <si>
-    <t>https://help.tableau.com/current/blueprint/en-us/bp_server_architecture.htm</t>
-  </si>
-  <si>
-    <t>https://help.tableau.com/current/server/en-us/processes.htm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,14 +383,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -563,11 +533,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -605,96 +574,65 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -997,766 +935,632 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:B97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="127.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.77734375" customWidth="1"/>
-    <col min="4" max="4" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="32"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="B1" s="20"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="33"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="27"/>
       <c r="B3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="27"/>
       <c r="B4" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="33"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="27"/>
       <c r="B5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="27"/>
       <c r="B6" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="33"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="28"/>
       <c r="B7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="32"/>
-      <c r="D8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
+      <c r="B8" s="20"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="27"/>
       <c r="B9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="27"/>
       <c r="B10" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="41" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="27"/>
       <c r="B11" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="34"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="27"/>
       <c r="B12" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="34"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="27"/>
       <c r="B13" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="34"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
       <c r="B14" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="34"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="27"/>
       <c r="B15" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="34"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="27"/>
       <c r="B16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="34"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="27"/>
       <c r="B17" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="34"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="27"/>
       <c r="B18" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="34"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="28"/>
       <c r="B19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="34"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="35"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
+      <c r="B20" s="31"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
         <v>79</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="36"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
       <c r="B22" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="36"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
       <c r="B23" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="36"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="15"/>
       <c r="B24" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="36"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="35"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
+      <c r="B25" s="31"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="36"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="15"/>
       <c r="B27" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="36"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="15"/>
       <c r="B28" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="36"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="15"/>
       <c r="B29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="36"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="15" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="32"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="17" t="s">
+      <c r="B30" s="20"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="34"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="27"/>
       <c r="B32" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="34"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="27"/>
       <c r="B33" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="34"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="13"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="27"/>
       <c r="B34" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="34"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="13"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="27"/>
       <c r="B35" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="34"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="14"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="28"/>
       <c r="B36" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="34"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="23" t="s">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="37"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="25" t="s">
+      <c r="B37" s="14"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="36"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="26"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="24"/>
       <c r="B39" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="36"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="26"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="24"/>
       <c r="B40" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="36"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="26"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="24"/>
       <c r="B41" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="36"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="26"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="24"/>
       <c r="B42" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="36"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="26"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="24"/>
       <c r="B43" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="36"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="26"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="24"/>
       <c r="B44" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="36"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="27"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="25"/>
       <c r="B45" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="36"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="23" t="s">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="37"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="25" t="s">
+      <c r="B46" s="14"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="23" t="s">
         <v>56</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="36"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="26"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="24"/>
       <c r="B48" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="36"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="26"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="24"/>
       <c r="B49" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C49" s="36"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="26"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="24"/>
       <c r="B50" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="36"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="26"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="24"/>
       <c r="B51" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="36"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="27"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="25"/>
       <c r="B52" s="4"/>
-      <c r="C52" s="36"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="15" t="s">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="32"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="18" t="s">
+      <c r="B53" s="20"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="21" t="s">
         <v>57</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C54" s="34"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="19"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="22"/>
       <c r="B55" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C55" s="34"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="15" t="s">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="16"/>
-      <c r="C56" s="32"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="18" t="s">
+      <c r="B56" s="20"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="21" t="s">
         <v>58</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C57" s="34"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="19"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="22"/>
       <c r="B58" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C58" s="38"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="19"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="22"/>
       <c r="B59" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C59" s="34"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="23" t="s">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B60" s="24"/>
-      <c r="C60" s="37"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="25" t="s">
+      <c r="B60" s="14"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="23" t="s">
         <v>90</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C61" s="36"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="26"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="24"/>
       <c r="B62" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C62" s="36"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="26"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="24"/>
       <c r="B63" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C63" s="36"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="27"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="25"/>
       <c r="B64" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C64" s="36"/>
-    </row>
-    <row r="65" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="6"/>
-    </row>
-    <row r="66" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C66" s="39"/>
-    </row>
-    <row r="67" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="36"/>
-    </row>
-    <row r="68" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="36"/>
-    </row>
-    <row r="69" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="36"/>
-    </row>
-    <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="23" t="s">
+    </row>
+    <row r="70" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B70" s="24"/>
-      <c r="C70" s="37"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="25" t="s">
+      <c r="B70" s="14"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="36"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="26"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="24"/>
       <c r="B72" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C72" s="36"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="26"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="24"/>
       <c r="B73" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C73" s="36"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="26"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="24"/>
       <c r="B74" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C74" s="36"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="28" t="s">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B75" s="24"/>
-      <c r="C75" s="37"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="25" t="s">
+      <c r="B75" s="14"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C76" s="36"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="26"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="24"/>
       <c r="B77" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C77" s="36"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="26"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="24"/>
       <c r="B78" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C78" s="36"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="26"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="24"/>
       <c r="B79" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C79" s="36"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="26"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="24"/>
       <c r="B80" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="36"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="27"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="25"/>
       <c r="B81" s="4"/>
-      <c r="C81" s="36"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="23" t="s">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B82" s="24"/>
-      <c r="C82" s="37"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="22" t="s">
+      <c r="B82" s="14"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="15" t="s">
         <v>68</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C83" s="40"/>
-    </row>
-    <row r="84" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A84" s="22"/>
+    </row>
+    <row r="84" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A84" s="15"/>
       <c r="B84" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C84" s="40"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="23" t="s">
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B85" s="24"/>
-      <c r="C85" s="37"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="29" t="s">
+      <c r="B85" s="14"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="16" t="s">
         <v>69</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C86" s="36"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="30"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="17"/>
       <c r="B87" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C87" s="36"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="23" t="s">
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B88" s="24"/>
-      <c r="C88" s="37"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="29" t="s">
+      <c r="B88" s="14"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C89" s="36"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="31"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="18"/>
       <c r="B90" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C90" s="36"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="31"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="18"/>
       <c r="B91" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C91" s="36"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="23" t="s">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="24"/>
-      <c r="C92" s="37"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="22" t="s">
+      <c r="B92" s="14"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="15" t="s">
         <v>99</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C93" s="36"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="22"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="15"/>
       <c r="B94" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C94" s="36"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="22"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="15"/>
       <c r="B95" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C95" s="36"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="22"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="15"/>
       <c r="B96" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C96" s="36"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="22"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="15"/>
       <c r="B97" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C97" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:A81"/>
-    <mergeCell ref="A82:B82"/>
     <mergeCell ref="A9:A19"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A7"/>
@@ -1773,40 +1577,25 @@
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A47:A52"/>
     <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:A81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:A91"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1" xr:uid="{BD8F5692-5DAF-47FE-9392-B6A70BC09331}"/>
-    <hyperlink ref="C10" r:id="rId2" xr:uid="{23ED43C8-4E04-4758-9532-C811CEBF814E}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4528B8BD-48DC-404A-BD61-7E2C1888265B}">
-  <dimension ref="B2:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2">
-        <f>40/2</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3">
-        <f>40/2.5</f>
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1817,15 +1606,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEA819FE1FEA7842ACF07A184F340044" ma:contentTypeVersion="" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ed1f6c39f10017fa153b938e9052d5db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f3e687d5f98ee29b9cfcc2ff24550dc4">
     <xsd:element name="properties">
@@ -1939,6 +1719,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE083A81-1796-4943-9006-99A887058007}">
   <ds:schemaRefs>
@@ -1955,14 +1744,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BE1F709-8378-4517-AABE-332F9FE74ED6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA9E66A-2D3F-4B0A-9281-7C3B99BD609E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1976,4 +1757,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BE1F709-8378-4517-AABE-332F9FE74ED6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Tableau - LTI.xlsx
+++ b/Tableau - LTI.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FCC398-D2DF-442E-8F73-09E28DD3E37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1997A9B-265D-4065-B15A-AC1E23055576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau" sheetId="8" r:id="rId1"/>
@@ -574,13 +574,52 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -590,45 +629,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -937,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="127.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -948,13 +948,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -962,115 +962,115 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="27"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="16"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="11" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="31"/>
+      <c r="B20" s="21"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="22" t="s">
         <v>79</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1078,31 +1078,31 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="31"/>
+      <c r="B25" s="21"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="22" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -1110,31 +1110,31 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="20"/>
+      <c r="B30" s="16"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="17" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="11" t="s">
@@ -1142,43 +1142,43 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="27"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="27"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="27"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="27"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="28"/>
+      <c r="A36" s="14"/>
       <c r="B36" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="14"/>
+      <c r="B37" s="24"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="25" t="s">
         <v>24</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -1186,55 +1186,55 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="24"/>
+      <c r="A39" s="26"/>
       <c r="B39" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="24"/>
+      <c r="A40" s="26"/>
       <c r="B40" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="24"/>
+      <c r="A41" s="26"/>
       <c r="B41" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
+      <c r="A42" s="26"/>
       <c r="B42" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="24"/>
+      <c r="A43" s="26"/>
       <c r="B43" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="24"/>
+      <c r="A44" s="26"/>
       <c r="B44" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="25"/>
+      <c r="A45" s="27"/>
       <c r="B45" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="14"/>
+      <c r="B46" s="24"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="25" t="s">
         <v>56</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -1242,41 +1242,41 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="24"/>
+      <c r="A48" s="26"/>
       <c r="B48" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="24"/>
+      <c r="A49" s="26"/>
       <c r="B49" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="24"/>
+      <c r="A50" s="26"/>
       <c r="B50" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="24"/>
+      <c r="A51" s="26"/>
       <c r="B51" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="25"/>
+      <c r="A52" s="27"/>
       <c r="B52" s="4"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="20"/>
+      <c r="B53" s="16"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="21" t="s">
+      <c r="A54" s="18" t="s">
         <v>57</v>
       </c>
       <c r="B54" s="11" t="s">
@@ -1284,19 +1284,19 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="22"/>
+      <c r="A55" s="19"/>
       <c r="B55" s="11" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="20"/>
+      <c r="B56" s="16"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="18" t="s">
         <v>58</v>
       </c>
       <c r="B57" s="11" t="s">
@@ -1304,25 +1304,25 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="22"/>
+      <c r="A58" s="19"/>
       <c r="B58" s="12" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="22"/>
+      <c r="A59" s="19"/>
       <c r="B59" s="11" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B60" s="14"/>
+      <c r="B60" s="24"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="23" t="s">
+      <c r="A61" s="25" t="s">
         <v>90</v>
       </c>
       <c r="B61" s="4" t="s">
@@ -1330,19 +1330,19 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="24"/>
+      <c r="A62" s="26"/>
       <c r="B62" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="24"/>
+      <c r="A63" s="26"/>
       <c r="B63" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="25"/>
+      <c r="A64" s="27"/>
       <c r="B64" s="4" t="s">
         <v>94</v>
       </c>
@@ -1382,13 +1382,13 @@
       </c>
     </row>
     <row r="70" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B70" s="14"/>
+      <c r="B70" s="24"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="23" t="s">
+      <c r="A71" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B71" s="4" t="s">
@@ -1396,31 +1396,31 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="24"/>
+      <c r="A72" s="26"/>
       <c r="B72" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="24"/>
+      <c r="A73" s="26"/>
       <c r="B73" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="24"/>
+      <c r="A74" s="26"/>
       <c r="B74" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="26" t="s">
+      <c r="A75" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B75" s="14"/>
+      <c r="B75" s="24"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="23" t="s">
+      <c r="A76" s="25" t="s">
         <v>21</v>
       </c>
       <c r="B76" s="4" t="s">
@@ -1428,41 +1428,41 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="24"/>
+      <c r="A77" s="26"/>
       <c r="B77" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="24"/>
+      <c r="A78" s="26"/>
       <c r="B78" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="24"/>
+      <c r="A79" s="26"/>
       <c r="B79" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="24"/>
+      <c r="A80" s="26"/>
       <c r="B80" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="25"/>
+      <c r="A81" s="27"/>
       <c r="B81" s="4"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="13" t="s">
+      <c r="A82" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B82" s="14"/>
+      <c r="B82" s="24"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="22" t="s">
         <v>68</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -1470,19 +1470,19 @@
       </c>
     </row>
     <row r="84" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A84" s="15"/>
+      <c r="A84" s="22"/>
       <c r="B84" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B85" s="14"/>
+      <c r="B85" s="24"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="16" t="s">
+      <c r="A86" s="29" t="s">
         <v>69</v>
       </c>
       <c r="B86" s="4" t="s">
@@ -1490,19 +1490,19 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="17"/>
+      <c r="A87" s="30"/>
       <c r="B87" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="13" t="s">
+      <c r="A88" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B88" s="14"/>
+      <c r="B88" s="24"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="16" t="s">
+      <c r="A89" s="29" t="s">
         <v>4</v>
       </c>
       <c r="B89" s="4" t="s">
@@ -1510,25 +1510,25 @@
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="18"/>
+      <c r="A90" s="31"/>
       <c r="B90" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="18"/>
+      <c r="A91" s="31"/>
       <c r="B91" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="13" t="s">
+      <c r="A92" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="14"/>
+      <c r="B92" s="24"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="15" t="s">
+      <c r="A93" s="22" t="s">
         <v>99</v>
       </c>
       <c r="B93" s="4" t="s">
@@ -1536,31 +1536,47 @@
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="15"/>
+      <c r="A94" s="22"/>
       <c r="B94" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="15"/>
+      <c r="A95" s="22"/>
       <c r="B95" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="15"/>
+      <c r="A96" s="22"/>
       <c r="B96" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="15"/>
+      <c r="A97" s="22"/>
       <c r="B97" s="4" t="s">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:A81"/>
+    <mergeCell ref="A82:B82"/>
     <mergeCell ref="A9:A19"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A7"/>
@@ -1577,22 +1593,6 @@
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A47:A52"/>
     <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:A81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:A91"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1600,9 +1600,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1720,25 +1723,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE083A81-1796-4943-9006-99A887058007}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BE1F709-8378-4517-AABE-332F9FE74ED6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1760,9 +1753,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BE1F709-8378-4517-AABE-332F9FE74ED6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE083A81-1796-4943-9006-99A887058007}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Tableau - LTI.xlsx
+++ b/Tableau - LTI.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1997A9B-265D-4065-B15A-AC1E23055576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86FB986-5A77-4CDF-AC24-A32E75815475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -938,7 +938,7 @@
   <dimension ref="A1:B97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="127.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tableau - LTI.xlsx
+++ b/Tableau - LTI.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86FB986-5A77-4CDF-AC24-A32E75815475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAFA392-F1C7-49B4-8D96-42D3E3741D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau" sheetId="8" r:id="rId1"/>
@@ -574,61 +574,61 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -938,7 +938,7 @@
   <dimension ref="A1:B97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="127.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -948,13 +948,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="29" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -962,115 +962,115 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="20"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="11" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="21"/>
+      <c r="B20" s="31"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="15" t="s">
         <v>79</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1078,31 +1078,31 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="21"/>
+      <c r="B25" s="31"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="15" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -1110,31 +1110,31 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="16"/>
+      <c r="B30" s="20"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="11" t="s">
@@ -1142,43 +1142,43 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
+      <c r="A33" s="27"/>
       <c r="B33" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="13"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="13"/>
+      <c r="A35" s="27"/>
       <c r="B35" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="14"/>
+      <c r="A36" s="28"/>
       <c r="B36" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="24"/>
+      <c r="B37" s="14"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -1186,55 +1186,55 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="26"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="26"/>
+      <c r="A40" s="24"/>
       <c r="B40" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="26"/>
+      <c r="A41" s="24"/>
       <c r="B41" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="26"/>
+      <c r="A42" s="24"/>
       <c r="B42" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="26"/>
+      <c r="A43" s="24"/>
       <c r="B43" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="26"/>
+      <c r="A44" s="24"/>
       <c r="B44" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="27"/>
+      <c r="A45" s="25"/>
       <c r="B45" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="24"/>
+      <c r="B46" s="14"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="23" t="s">
         <v>56</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -1242,41 +1242,41 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="26"/>
+      <c r="A48" s="24"/>
       <c r="B48" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="26"/>
+      <c r="A49" s="24"/>
       <c r="B49" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="26"/>
+      <c r="A50" s="24"/>
       <c r="B50" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="26"/>
+      <c r="A51" s="24"/>
       <c r="B51" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="27"/>
+      <c r="A52" s="25"/>
       <c r="B52" s="4"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="16"/>
+      <c r="B53" s="20"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="21" t="s">
         <v>57</v>
       </c>
       <c r="B54" s="11" t="s">
@@ -1284,19 +1284,19 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="19"/>
+      <c r="A55" s="22"/>
       <c r="B55" s="11" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="16"/>
+      <c r="B56" s="20"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="18" t="s">
+      <c r="A57" s="21" t="s">
         <v>58</v>
       </c>
       <c r="B57" s="11" t="s">
@@ -1304,25 +1304,25 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="19"/>
+      <c r="A58" s="22"/>
       <c r="B58" s="12" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="19"/>
+      <c r="A59" s="22"/>
       <c r="B59" s="11" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="23" t="s">
+      <c r="A60" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B60" s="24"/>
+      <c r="B60" s="14"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="23" t="s">
         <v>90</v>
       </c>
       <c r="B61" s="4" t="s">
@@ -1330,19 +1330,19 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="26"/>
+      <c r="A62" s="24"/>
       <c r="B62" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="26"/>
+      <c r="A63" s="24"/>
       <c r="B63" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="27"/>
+      <c r="A64" s="25"/>
       <c r="B64" s="4" t="s">
         <v>94</v>
       </c>
@@ -1382,13 +1382,13 @@
       </c>
     </row>
     <row r="70" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="23" t="s">
+      <c r="A70" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B70" s="24"/>
+      <c r="B70" s="14"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B71" s="4" t="s">
@@ -1396,31 +1396,31 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="26"/>
+      <c r="A72" s="24"/>
       <c r="B72" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="26"/>
+      <c r="A73" s="24"/>
       <c r="B73" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="26"/>
+      <c r="A74" s="24"/>
       <c r="B74" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="28" t="s">
+      <c r="A75" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B75" s="24"/>
+      <c r="B75" s="14"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="25" t="s">
+      <c r="A76" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B76" s="4" t="s">
@@ -1428,41 +1428,41 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="26"/>
+      <c r="A77" s="24"/>
       <c r="B77" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="26"/>
+      <c r="A78" s="24"/>
       <c r="B78" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="26"/>
+      <c r="A79" s="24"/>
       <c r="B79" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="26"/>
+      <c r="A80" s="24"/>
       <c r="B80" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="27"/>
+      <c r="A81" s="25"/>
       <c r="B81" s="4"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="23" t="s">
+      <c r="A82" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B82" s="24"/>
+      <c r="B82" s="14"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="22" t="s">
+      <c r="A83" s="15" t="s">
         <v>68</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -1470,19 +1470,19 @@
       </c>
     </row>
     <row r="84" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A84" s="22"/>
+      <c r="A84" s="15"/>
       <c r="B84" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="23" t="s">
+      <c r="A85" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B85" s="24"/>
+      <c r="B85" s="14"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="29" t="s">
+      <c r="A86" s="16" t="s">
         <v>69</v>
       </c>
       <c r="B86" s="4" t="s">
@@ -1490,19 +1490,19 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="30"/>
+      <c r="A87" s="17"/>
       <c r="B87" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="23" t="s">
+      <c r="A88" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B88" s="24"/>
+      <c r="B88" s="14"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="29" t="s">
+      <c r="A89" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B89" s="4" t="s">
@@ -1510,25 +1510,25 @@
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="31"/>
+      <c r="A90" s="18"/>
       <c r="B90" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="31"/>
+      <c r="A91" s="18"/>
       <c r="B91" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="23" t="s">
+      <c r="A92" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="24"/>
+      <c r="B92" s="14"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="22" t="s">
+      <c r="A93" s="15" t="s">
         <v>99</v>
       </c>
       <c r="B93" s="4" t="s">
@@ -1536,47 +1536,31 @@
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="22"/>
+      <c r="A94" s="15"/>
       <c r="B94" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="22"/>
+      <c r="A95" s="15"/>
       <c r="B95" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="22"/>
+      <c r="A96" s="15"/>
       <c r="B96" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="22"/>
+      <c r="A97" s="15"/>
       <c r="B97" s="4" t="s">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:A81"/>
-    <mergeCell ref="A82:B82"/>
     <mergeCell ref="A9:A19"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A7"/>
@@ -1593,6 +1577,22 @@
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A47:A52"/>
     <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:A81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:A91"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1600,15 +1600,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEA819FE1FEA7842ACF07A184F340044" ma:contentTypeVersion="" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ed1f6c39f10017fa153b938e9052d5db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f3e687d5f98ee29b9cfcc2ff24550dc4">
     <xsd:element name="properties">
@@ -1722,6 +1713,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1729,14 +1729,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BE1F709-8378-4517-AABE-332F9FE74ED6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA9E66A-2D3F-4B0A-9281-7C3B99BD609E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1748,6 +1740,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BE1F709-8378-4517-AABE-332F9FE74ED6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Tableau - LTI.xlsx
+++ b/Tableau - LTI.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAFA392-F1C7-49B4-8D96-42D3E3741D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC20586-9936-4737-8B9D-6130B4C4122C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -937,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="127.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tableau - LTI.xlsx
+++ b/Tableau - LTI.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC20586-9936-4737-8B9D-6130B4C4122C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1EBB35-7BCA-422C-A075-519C8EE21BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -574,13 +574,52 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -590,45 +629,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -937,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="127.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -948,13 +948,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -962,115 +962,115 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="27"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="16"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="11" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="31"/>
+      <c r="B20" s="21"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="22" t="s">
         <v>79</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1078,31 +1078,31 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="31"/>
+      <c r="B25" s="21"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="22" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -1110,31 +1110,31 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="20"/>
+      <c r="B30" s="16"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="17" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="11" t="s">
@@ -1142,43 +1142,43 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="27"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="27"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="27"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="27"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="28"/>
+      <c r="A36" s="14"/>
       <c r="B36" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="14"/>
+      <c r="B37" s="24"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="25" t="s">
         <v>24</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -1186,55 +1186,55 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="24"/>
+      <c r="A39" s="26"/>
       <c r="B39" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="24"/>
+      <c r="A40" s="26"/>
       <c r="B40" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="24"/>
+      <c r="A41" s="26"/>
       <c r="B41" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
+      <c r="A42" s="26"/>
       <c r="B42" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="24"/>
+      <c r="A43" s="26"/>
       <c r="B43" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="24"/>
+      <c r="A44" s="26"/>
       <c r="B44" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="25"/>
+      <c r="A45" s="27"/>
       <c r="B45" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="14"/>
+      <c r="B46" s="24"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="25" t="s">
         <v>56</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -1242,41 +1242,41 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="24"/>
+      <c r="A48" s="26"/>
       <c r="B48" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="24"/>
+      <c r="A49" s="26"/>
       <c r="B49" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="24"/>
+      <c r="A50" s="26"/>
       <c r="B50" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="24"/>
+      <c r="A51" s="26"/>
       <c r="B51" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="25"/>
+      <c r="A52" s="27"/>
       <c r="B52" s="4"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="20"/>
+      <c r="B53" s="16"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="21" t="s">
+      <c r="A54" s="18" t="s">
         <v>57</v>
       </c>
       <c r="B54" s="11" t="s">
@@ -1284,19 +1284,19 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="22"/>
+      <c r="A55" s="19"/>
       <c r="B55" s="11" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="20"/>
+      <c r="B56" s="16"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="18" t="s">
         <v>58</v>
       </c>
       <c r="B57" s="11" t="s">
@@ -1304,25 +1304,25 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="22"/>
+      <c r="A58" s="19"/>
       <c r="B58" s="12" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="22"/>
+      <c r="A59" s="19"/>
       <c r="B59" s="11" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B60" s="14"/>
+      <c r="B60" s="24"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="23" t="s">
+      <c r="A61" s="25" t="s">
         <v>90</v>
       </c>
       <c r="B61" s="4" t="s">
@@ -1330,19 +1330,19 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="24"/>
+      <c r="A62" s="26"/>
       <c r="B62" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="24"/>
+      <c r="A63" s="26"/>
       <c r="B63" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="25"/>
+      <c r="A64" s="27"/>
       <c r="B64" s="4" t="s">
         <v>94</v>
       </c>
@@ -1382,13 +1382,13 @@
       </c>
     </row>
     <row r="70" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B70" s="14"/>
+      <c r="B70" s="24"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="23" t="s">
+      <c r="A71" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B71" s="4" t="s">
@@ -1396,31 +1396,31 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="24"/>
+      <c r="A72" s="26"/>
       <c r="B72" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="24"/>
+      <c r="A73" s="26"/>
       <c r="B73" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="24"/>
+      <c r="A74" s="26"/>
       <c r="B74" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="26" t="s">
+      <c r="A75" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B75" s="14"/>
+      <c r="B75" s="24"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="23" t="s">
+      <c r="A76" s="25" t="s">
         <v>21</v>
       </c>
       <c r="B76" s="4" t="s">
@@ -1428,41 +1428,41 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="24"/>
+      <c r="A77" s="26"/>
       <c r="B77" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="24"/>
+      <c r="A78" s="26"/>
       <c r="B78" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="24"/>
+      <c r="A79" s="26"/>
       <c r="B79" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="24"/>
+      <c r="A80" s="26"/>
       <c r="B80" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="25"/>
+      <c r="A81" s="27"/>
       <c r="B81" s="4"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="13" t="s">
+      <c r="A82" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B82" s="14"/>
+      <c r="B82" s="24"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="22" t="s">
         <v>68</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -1470,19 +1470,19 @@
       </c>
     </row>
     <row r="84" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A84" s="15"/>
+      <c r="A84" s="22"/>
       <c r="B84" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B85" s="14"/>
+      <c r="B85" s="24"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="16" t="s">
+      <c r="A86" s="29" t="s">
         <v>69</v>
       </c>
       <c r="B86" s="4" t="s">
@@ -1490,19 +1490,19 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="17"/>
+      <c r="A87" s="30"/>
       <c r="B87" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="13" t="s">
+      <c r="A88" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B88" s="14"/>
+      <c r="B88" s="24"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="16" t="s">
+      <c r="A89" s="29" t="s">
         <v>4</v>
       </c>
       <c r="B89" s="4" t="s">
@@ -1510,25 +1510,25 @@
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="18"/>
+      <c r="A90" s="31"/>
       <c r="B90" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="18"/>
+      <c r="A91" s="31"/>
       <c r="B91" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="13" t="s">
+      <c r="A92" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="14"/>
+      <c r="B92" s="24"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="15" t="s">
+      <c r="A93" s="22" t="s">
         <v>99</v>
       </c>
       <c r="B93" s="4" t="s">
@@ -1536,31 +1536,47 @@
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="15"/>
+      <c r="A94" s="22"/>
       <c r="B94" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="15"/>
+      <c r="A95" s="22"/>
       <c r="B95" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="15"/>
+      <c r="A96" s="22"/>
       <c r="B96" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="15"/>
+      <c r="A97" s="22"/>
       <c r="B97" s="4" t="s">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:A81"/>
+    <mergeCell ref="A82:B82"/>
     <mergeCell ref="A9:A19"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A7"/>
@@ -1577,22 +1593,6 @@
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A47:A52"/>
     <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:A81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:A91"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1600,6 +1600,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEA819FE1FEA7842ACF07A184F340044" ma:contentTypeVersion="" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ed1f6c39f10017fa153b938e9052d5db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f3e687d5f98ee29b9cfcc2ff24550dc4">
     <xsd:element name="properties">
@@ -1713,15 +1722,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1729,6 +1729,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BE1F709-8378-4517-AABE-332F9FE74ED6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA9E66A-2D3F-4B0A-9281-7C3B99BD609E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1740,14 +1748,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BE1F709-8378-4517-AABE-332F9FE74ED6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
